--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Flt4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H2">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4672933813671</v>
+        <v>16.700438</v>
       </c>
       <c r="N2">
-        <v>16.4672933813671</v>
+        <v>50.101314</v>
       </c>
       <c r="O2">
-        <v>0.9936401865464862</v>
+        <v>0.9900549709158725</v>
       </c>
       <c r="P2">
-        <v>0.9936401865464862</v>
+        <v>0.9900549709158725</v>
       </c>
       <c r="Q2">
-        <v>87.13370454848035</v>
+        <v>92.71037173499933</v>
       </c>
       <c r="R2">
-        <v>87.13370454848035</v>
+        <v>834.3933456149939</v>
       </c>
       <c r="S2">
-        <v>0.5259234441182493</v>
+        <v>0.5216081016858629</v>
       </c>
       <c r="T2">
-        <v>0.5259234441182493</v>
+        <v>0.5216081016858629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H3">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.105399233452681</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N3">
-        <v>0.105399233452681</v>
+        <v>0.125284</v>
       </c>
       <c r="O3">
-        <v>0.006359813453513882</v>
+        <v>0.002475744388185591</v>
       </c>
       <c r="P3">
-        <v>0.006359813453513882</v>
+        <v>0.002475744388185591</v>
       </c>
       <c r="Q3">
-        <v>0.5577009806416517</v>
+        <v>0.2318327661515556</v>
       </c>
       <c r="R3">
-        <v>0.5577009806416517</v>
+        <v>2.086494895364</v>
       </c>
       <c r="S3">
-        <v>0.003366183293216792</v>
+        <v>0.00130434003011601</v>
       </c>
       <c r="T3">
-        <v>0.003366183293216792</v>
+        <v>0.00130434003011601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.97060210072412</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H4">
-        <v>3.97060210072412</v>
+        <v>16.654121</v>
       </c>
       <c r="I4">
-        <v>0.3971785585792734</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J4">
-        <v>0.3971785585792734</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.4672933813671</v>
+        <v>0.1259933333333333</v>
       </c>
       <c r="N4">
-        <v>16.4672933813671</v>
+        <v>0.37798</v>
       </c>
       <c r="O4">
-        <v>0.9936401865464862</v>
+        <v>0.007469284695941936</v>
       </c>
       <c r="P4">
-        <v>0.9936401865464862</v>
+        <v>0.007469284695941937</v>
       </c>
       <c r="Q4">
-        <v>65.3850696932966</v>
+        <v>0.6994360728422221</v>
       </c>
       <c r="R4">
-        <v>65.3850696932966</v>
+        <v>6.29492465558</v>
       </c>
       <c r="S4">
-        <v>0.3946525770389737</v>
+        <v>0.003935174839430807</v>
       </c>
       <c r="T4">
-        <v>0.3946525770389737</v>
+        <v>0.003935174839430807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H5">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I5">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J5">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105399233452681</v>
+        <v>16.700438</v>
       </c>
       <c r="N5">
-        <v>0.105399233452681</v>
+        <v>50.101314</v>
       </c>
       <c r="O5">
-        <v>0.006359813453513882</v>
+        <v>0.9900549709158725</v>
       </c>
       <c r="P5">
-        <v>0.006359813453513882</v>
+        <v>0.9900549709158725</v>
       </c>
       <c r="Q5">
-        <v>0.4184984177619271</v>
+        <v>66.45764504182266</v>
       </c>
       <c r="R5">
-        <v>0.4184984177619271</v>
+        <v>598.1188053764039</v>
       </c>
       <c r="S5">
-        <v>0.002525981540299714</v>
+        <v>0.3739047252648605</v>
       </c>
       <c r="T5">
-        <v>0.002525981540299714</v>
+        <v>0.3739047252648605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.735099035103003</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H6">
-        <v>0.735099035103003</v>
+        <v>11.938186</v>
       </c>
       <c r="I6">
-        <v>0.07353181400926059</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J6">
-        <v>0.07353181400926059</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>16.4672933813671</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N6">
-        <v>16.4672933813671</v>
+        <v>0.125284</v>
       </c>
       <c r="O6">
-        <v>0.9936401865464862</v>
+        <v>0.002475744388185591</v>
       </c>
       <c r="P6">
-        <v>0.9936401865464862</v>
+        <v>0.002475744388185591</v>
       </c>
       <c r="Q6">
-        <v>12.10509147540102</v>
+        <v>0.1661848549804445</v>
       </c>
       <c r="R6">
-        <v>12.10509147540102</v>
+        <v>1.495663694824</v>
       </c>
       <c r="S6">
-        <v>0.07306416538926322</v>
+        <v>0.0009349910383604469</v>
       </c>
       <c r="T6">
-        <v>0.07306416538926322</v>
+        <v>0.0009349910383604469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.979395333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.938186</v>
+      </c>
+      <c r="I7">
+        <v>0.3776605706236408</v>
+      </c>
+      <c r="J7">
+        <v>0.3776605706236408</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1259933333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.37798</v>
+      </c>
+      <c r="O7">
+        <v>0.007469284695941936</v>
+      </c>
+      <c r="P7">
+        <v>0.007469284695941937</v>
+      </c>
+      <c r="Q7">
+        <v>0.5013772826977777</v>
+      </c>
+      <c r="R7">
+        <v>4.512395544279999</v>
+      </c>
+      <c r="S7">
+        <v>0.002820854320419859</v>
+      </c>
+      <c r="T7">
+        <v>0.002820854320419859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.044456</v>
+      </c>
+      <c r="H8">
+        <v>0.133368</v>
+      </c>
+      <c r="I8">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J8">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.700438</v>
+      </c>
+      <c r="N8">
+        <v>50.101314</v>
+      </c>
+      <c r="O8">
+        <v>0.9900549709158725</v>
+      </c>
+      <c r="P8">
+        <v>0.9900549709158725</v>
+      </c>
+      <c r="Q8">
+        <v>0.7424346717279998</v>
+      </c>
+      <c r="R8">
+        <v>6.681912045551998</v>
+      </c>
+      <c r="S8">
+        <v>0.004177094024094106</v>
+      </c>
+      <c r="T8">
+        <v>0.004177094024094105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.044456</v>
+      </c>
+      <c r="H9">
+        <v>0.133368</v>
+      </c>
+      <c r="I9">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J9">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04176133333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.125284</v>
+      </c>
+      <c r="O9">
+        <v>0.002475744388185591</v>
+      </c>
+      <c r="P9">
+        <v>0.002475744388185591</v>
+      </c>
+      <c r="Q9">
+        <v>0.001856541834666667</v>
+      </c>
+      <c r="R9">
+        <v>0.016708876512</v>
+      </c>
+      <c r="S9">
+        <v>1.044529586019652E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.044529586019652E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.044456</v>
+      </c>
+      <c r="H10">
+        <v>0.133368</v>
+      </c>
+      <c r="I10">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J10">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1259933333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.37798</v>
+      </c>
+      <c r="O10">
+        <v>0.007469284695941936</v>
+      </c>
+      <c r="P10">
+        <v>0.007469284695941937</v>
+      </c>
+      <c r="Q10">
+        <v>0.005601159626666665</v>
+      </c>
+      <c r="R10">
+        <v>0.05041043663999999</v>
+      </c>
+      <c r="S10">
+        <v>3.151330520447208E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.151330520447208E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="H7">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="I7">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="J7">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.105399233452681</v>
-      </c>
-      <c r="N7">
-        <v>0.105399233452681</v>
-      </c>
-      <c r="O7">
-        <v>0.006359813453513882</v>
-      </c>
-      <c r="P7">
-        <v>0.006359813453513882</v>
-      </c>
-      <c r="Q7">
-        <v>0.07747887481166196</v>
-      </c>
-      <c r="R7">
-        <v>0.07747887481166196</v>
-      </c>
-      <c r="S7">
-        <v>0.0004676486199973761</v>
-      </c>
-      <c r="T7">
-        <v>0.0004676486199973761</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.885213</v>
+      </c>
+      <c r="I11">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J11">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.700438</v>
+      </c>
+      <c r="N11">
+        <v>50.101314</v>
+      </c>
+      <c r="O11">
+        <v>0.9900549709158725</v>
+      </c>
+      <c r="P11">
+        <v>0.9900549709158725</v>
+      </c>
+      <c r="Q11">
+        <v>16.06144027443133</v>
+      </c>
+      <c r="R11">
+        <v>144.552962469882</v>
+      </c>
+      <c r="S11">
+        <v>0.09036504994105504</v>
+      </c>
+      <c r="T11">
+        <v>0.09036504994105504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.885213</v>
+      </c>
+      <c r="I12">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J12">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04176133333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.125284</v>
+      </c>
+      <c r="O12">
+        <v>0.002475744388185591</v>
+      </c>
+      <c r="P12">
+        <v>0.002475744388185591</v>
+      </c>
+      <c r="Q12">
+        <v>0.04016344727688889</v>
+      </c>
+      <c r="R12">
+        <v>0.3614710254920001</v>
+      </c>
+      <c r="S12">
+        <v>0.0002259680238489382</v>
+      </c>
+      <c r="T12">
+        <v>0.0002259680238489382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.885213</v>
+      </c>
+      <c r="I13">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J13">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1259933333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.37798</v>
+      </c>
+      <c r="O13">
+        <v>0.007469284695941936</v>
+      </c>
+      <c r="P13">
+        <v>0.007469284695941937</v>
+      </c>
+      <c r="Q13">
+        <v>0.1211725344155555</v>
+      </c>
+      <c r="R13">
+        <v>1.09055280974</v>
+      </c>
+      <c r="S13">
+        <v>0.0006817422308867983</v>
+      </c>
+      <c r="T13">
+        <v>0.0006817422308867984</v>
       </c>
     </row>
   </sheetData>
